--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="R76" s="2" t="inlineStr"/>
     </row>
-    <row r="77">
+    <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
           <t>A 40042-2023</t>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5099,6 +5099,63 @@
         <v>0</v>
       </c>
       <c r="R77" s="2" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>A 40897-2023</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>KUMLA</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -638,27 +638,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/artfynd/A 54112-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/artfynd/A 54112-2022.xlsx", "A 54112-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/kartor/A 54112-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/kartor/A 54112-2022.png", "A 54112-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomål/A 54112-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomål/A 54112-2022.docx", "A 54112-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomålsmail/A 54112-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomålsmail/A 54112-2022.docx", "A 54112-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsyn/A 54112-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsyn/A 54112-2022.docx", "A 54112-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsynsmail/A 54112-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsynsmail/A 54112-2022.docx", "A 54112-2022")</f>
         <v/>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -731,27 +731,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/artfynd/A 73775-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/artfynd/A 73775-2021.xlsx", "A 73775-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/kartor/A 73775-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/kartor/A 73775-2021.png", "A 73775-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomål/A 73775-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomål/A 73775-2021.docx", "A 73775-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomålsmail/A 73775-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomålsmail/A 73775-2021.docx", "A 73775-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsyn/A 73775-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsyn/A 73775-2021.docx", "A 73775-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsynsmail/A 73775-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsynsmail/A 73775-2021.docx", "A 73775-2021")</f>
         <v/>
       </c>
     </row>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -823,27 +823,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/artfynd/A 54373-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/artfynd/A 54373-2022.xlsx", "A 54373-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/kartor/A 54373-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/kartor/A 54373-2022.png", "A 54373-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomål/A 54373-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomål/A 54373-2022.docx", "A 54373-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomålsmail/A 54373-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomålsmail/A 54373-2022.docx", "A 54373-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsyn/A 54373-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsyn/A 54373-2022.docx", "A 54373-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsynsmail/A 54373-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsynsmail/A 54373-2022.docx", "A 54373-2022")</f>
         <v/>
       </c>
     </row>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,27 +914,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/artfynd/A 31052-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/artfynd/A 31052-2020.xlsx", "A 31052-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/kartor/A 31052-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/kartor/A 31052-2020.png", "A 31052-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomål/A 31052-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomål/A 31052-2020.docx", "A 31052-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomålsmail/A 31052-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomålsmail/A 31052-2020.docx", "A 31052-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsyn/A 31052-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsyn/A 31052-2020.docx", "A 31052-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsynsmail/A 31052-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsynsmail/A 31052-2020.docx", "A 31052-2020")</f>
         <v/>
       </c>
     </row>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,27 +1004,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/artfynd/A 6574-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/artfynd/A 6574-2019.xlsx", "A 6574-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/kartor/A 6574-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/kartor/A 6574-2019.png", "A 6574-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomål/A 6574-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomål/A 6574-2019.docx", "A 6574-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomålsmail/A 6574-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/klagomålsmail/A 6574-2019.docx", "A 6574-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsyn/A 6574-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsyn/A 6574-2019.docx", "A 6574-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsynsmail/A 6574-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KUMLA/tillsynsmail/A 6574-2019.docx", "A 6574-2019")</f>
         <v/>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -572,7 +572,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44879</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44008</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>43488</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43341</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43370</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43377</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43441</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>43487</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43487</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43523</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43537</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>43545</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>43591</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>43598</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>43613</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>43647</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>43733</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43748</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>43767</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43775</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>43777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43784</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>43826</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>43838</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43861</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43861</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43867</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43903</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43910</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>44014</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44032</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44054</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44076</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44085</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44109</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>44109</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>44147</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44161</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>44222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44232</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44365</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44365</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>44432</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>44455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44474</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>44476</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>44531</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>44581</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44601</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44723</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         <v>44741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>44783</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>44784</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>44784</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44837</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>44887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>44900</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>44937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44944</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44977</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45027</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45068</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45167</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45173</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
